--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H2">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>424.7106650800081</v>
+        <v>600.1893576344003</v>
       </c>
       <c r="R2">
-        <v>3822.395985720073</v>
+        <v>5401.704218709603</v>
       </c>
       <c r="S2">
-        <v>0.01367976579812941</v>
+        <v>0.01852799840308705</v>
       </c>
       <c r="T2">
-        <v>0.01367976579812941</v>
+        <v>0.01852799840308705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H3">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>45.22933273838446</v>
+        <v>67.75605559246445</v>
       </c>
       <c r="R3">
-        <v>407.0639946454601</v>
+        <v>609.8045003321801</v>
       </c>
       <c r="S3">
-        <v>0.001456819265299611</v>
+        <v>0.002091646700908956</v>
       </c>
       <c r="T3">
-        <v>0.001456819265299611</v>
+        <v>0.002091646700908955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H4">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>24.86244709732712</v>
+        <v>67.50503124286332</v>
       </c>
       <c r="R4">
-        <v>223.762023875944</v>
+        <v>607.5452811857699</v>
       </c>
       <c r="S4">
-        <v>0.0008008097781009247</v>
+        <v>0.002083897515273814</v>
       </c>
       <c r="T4">
-        <v>0.0008008097781009246</v>
+        <v>0.002083897515273814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I5">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J5">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>25702.6565418479</v>
+        <v>24246.28476155018</v>
       </c>
       <c r="R5">
-        <v>231323.908876631</v>
+        <v>218216.5628539516</v>
       </c>
       <c r="S5">
-        <v>0.827872598433575</v>
+        <v>0.7484889887308582</v>
       </c>
       <c r="T5">
-        <v>0.8278725984335749</v>
+        <v>0.7484889887308582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I6">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J6">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>2737.190517155144</v>
@@ -821,10 +821,10 @@
         <v>24634.71465439629</v>
       </c>
       <c r="S6">
-        <v>0.08816384493779848</v>
+        <v>0.08449776872199705</v>
       </c>
       <c r="T6">
-        <v>0.08816384493779847</v>
+        <v>0.08449776872199703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I7">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J7">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>1504.626540075418</v>
+        <v>2727.049704451465</v>
       </c>
       <c r="R7">
-        <v>13541.63886067876</v>
+        <v>24543.44734006319</v>
       </c>
       <c r="S7">
-        <v>0.04846343728619112</v>
+        <v>0.08418471924987658</v>
       </c>
       <c r="T7">
-        <v>0.04846343728619112</v>
+        <v>0.08418471924987658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H8">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I8">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J8">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>471.883561776972</v>
+        <v>1506.820847412215</v>
       </c>
       <c r="R8">
-        <v>4246.952055992749</v>
+        <v>13561.38762670993</v>
       </c>
       <c r="S8">
-        <v>0.01519918650472329</v>
+        <v>0.04651594350927829</v>
       </c>
       <c r="T8">
-        <v>0.01519918650472329</v>
+        <v>0.04651594350927829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H9">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I9">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J9">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>50.25298487704335</v>
+        <v>170.1067101681889</v>
       </c>
       <c r="R9">
-        <v>452.2768638933901</v>
+        <v>1530.9603915137</v>
       </c>
       <c r="S9">
-        <v>0.001618629152261549</v>
+        <v>0.005251237487403844</v>
       </c>
       <c r="T9">
-        <v>0.001618629152261549</v>
+        <v>0.005251237487403844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H10">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I10">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J10">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>27.62393567057734</v>
+        <v>169.4764945231166</v>
       </c>
       <c r="R10">
-        <v>248.6154210351961</v>
+        <v>1525.28845070805</v>
       </c>
       <c r="S10">
-        <v>0.0008897562540015408</v>
+        <v>0.00523178256985662</v>
       </c>
       <c r="T10">
-        <v>0.0008897562540015407</v>
+        <v>0.00523178256985662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H11">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I11">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J11">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N11">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q11">
-        <v>49.437382842288</v>
+        <v>82.63918250752012</v>
       </c>
       <c r="R11">
-        <v>444.936445580592</v>
+        <v>743.7526425676811</v>
       </c>
       <c r="S11">
-        <v>0.001592358927053456</v>
+        <v>0.002551092621113137</v>
       </c>
       <c r="T11">
-        <v>0.001592358927053456</v>
+        <v>0.002551092621113137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H12">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I12">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J12">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q12">
-        <v>5.26480736684</v>
+        <v>9.329230805032223</v>
       </c>
       <c r="R12">
-        <v>47.38326630156</v>
+        <v>83.96307724528999</v>
       </c>
       <c r="S12">
-        <v>0.0001695774033295586</v>
+        <v>0.0002879957321118624</v>
       </c>
       <c r="T12">
-        <v>0.0001695774033295586</v>
+        <v>0.0002879957321118624</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H13">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I13">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J13">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N13">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q13">
-        <v>2.894050977776</v>
+        <v>9.294667634631665</v>
       </c>
       <c r="R13">
-        <v>26.046458799984</v>
+        <v>83.652008711685</v>
       </c>
       <c r="S13">
-        <v>9.321625953604218E-05</v>
+        <v>0.0002869287582346328</v>
       </c>
       <c r="T13">
-        <v>9.321625953604216E-05</v>
+        <v>0.0002869287582346328</v>
       </c>
     </row>
   </sheetData>
